--- a/results/cpp/DeepSpeech/DeepSpeech.xlsx
+++ b/results/cpp/DeepSpeech/DeepSpeech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/cpp/DeepSpeech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090F7A34-4282-3540-9193-431C3ECFD203}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50632371-E9B7-C24E-A0B8-FE489367F686}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27460" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="6840" windowWidth="27460" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeepSpeech" sheetId="1" r:id="rId1"/>
@@ -8097,7 +8097,7 @@
   <dimension ref="A1:O3096"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
